--- a/open_sessions/open_Innovation_talk.xlsx
+++ b/open_sessions/open_Innovation_talk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,17 +492,17 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>160</v>
+        <v>862</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -528,17 +528,17 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>144</v>
+        <v>838</v>
       </c>
       <c r="F3" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -564,17 +564,17 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>165</v>
+        <v>876</v>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -600,17 +600,17 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>741</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -636,17 +636,17 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E6" t="n">
-        <v>152</v>
+        <v>850</v>
       </c>
       <c r="F6" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -672,17 +672,17 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E7" t="n">
-        <v>154</v>
+        <v>715</v>
       </c>
       <c r="F7" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -708,17 +708,17 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E8" t="n">
-        <v>187</v>
+        <v>935</v>
       </c>
       <c r="F8" t="n">
         <v>93</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INTPAR-1170 - Network Assurance: a holistic view for the network practitioner</t>
+          <t xml:space="preserve">INTIOT-1712 - New IoT Innovations to Simplify IT for Industrial Networks </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -740,21 +740,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00 - 12:30</t>
+          <t>15:00 - 15:30</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E9" t="n">
-        <v>183</v>
+        <v>819</v>
       </c>
       <c r="F9" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -766,31 +766,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTIOT-1712 - New IoT Innovations to Simplify IT for Industrial Networks </t>
+          <t>INTENT-1589 - Simplifying Network Experiences, Transform the Way You Work</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00 - 15:30</t>
+          <t>12:00 - 12:30</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E10" t="n">
-        <v>144</v>
+        <v>884</v>
       </c>
       <c r="F10" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -802,31 +802,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INTENT-1589 - Simplifying Network Experiences, Transform the Way You Work</t>
+          <t>INTCOL-1122 - The Next Chapter of Hybrid Work</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00 - 12:30</t>
+          <t>11:00 - 11:30</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="n">
-        <v>167</v>
+        <v>808</v>
       </c>
       <c r="F11" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -838,12 +838,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INTCOL-1122 - The Next Chapter of Hybrid Work</t>
+          <t xml:space="preserve">INTETI-1290 - The Power of Yet:  An Introduction to Cisco Emerging Technologies and Incubation Group </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -852,56 +852,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>150</v>
+        <v>948</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Innovation Theatre</t>
+          <t>Innovation Theater</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
-        <is>
-          <t>Overcapacity</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INTETI-1290 - The Power of Yet:  An Introduction to Cisco Emerging Technologies and Incubation Group </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>11:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>200</v>
-      </c>
-      <c r="E13" t="n">
-        <v>187</v>
-      </c>
-      <c r="F13" t="n">
-        <v>93</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Innovation Theatre</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>Overcapacity</t>
         </is>
